--- a/P3_Ownership.xlsx
+++ b/P3_Ownership.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Status</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">Unknown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
   </si>
   <si>
     <t xml:space="preserve">Exclusive</t>
@@ -380,39 +383,48 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>149.6423</v>
+        <v>140.1379</v>
       </c>
       <c r="C2" t="n">
-        <v>2185.322</v>
+        <v>2114.1399</v>
       </c>
       <c r="D2" t="n">
-        <v>137.6711</v>
+        <v>130.56</v>
       </c>
       <c r="E2" t="n">
-        <v>76.1859</v>
+        <v>68.297</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2453.1348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>37.8175</v>
+        <v>47.3219</v>
       </c>
       <c r="C3" t="n">
-        <v>1008.0739</v>
+        <v>1079.256</v>
       </c>
       <c r="D3" t="n">
-        <v>744.6717</v>
+        <v>751.7828</v>
       </c>
       <c r="E3" t="n">
-        <v>197.7191</v>
+        <v>205.608</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2083.9687</v>
       </c>
     </row>
   </sheetData>

--- a/P3_Ownership.xlsx
+++ b/P3_Ownership.xlsx
@@ -392,19 +392,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>140.1379</v>
+        <v>140.1408</v>
       </c>
       <c r="C2" t="n">
-        <v>2114.1399</v>
+        <v>2114.3664</v>
       </c>
       <c r="D2" t="n">
-        <v>130.56</v>
+        <v>141.162</v>
       </c>
       <c r="E2" t="n">
-        <v>68.297</v>
+        <v>69.0453</v>
       </c>
       <c r="F2" t="n">
-        <v>2453.1348</v>
+        <v>2464.7145</v>
       </c>
     </row>
     <row r="3">
@@ -412,19 +412,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>47.3219</v>
+        <v>47.3189</v>
       </c>
       <c r="C3" t="n">
-        <v>1079.256</v>
+        <v>1079.0288</v>
       </c>
       <c r="D3" t="n">
-        <v>751.7828</v>
+        <v>741.1805</v>
       </c>
       <c r="E3" t="n">
-        <v>205.608</v>
+        <v>204.8602</v>
       </c>
       <c r="F3" t="n">
-        <v>2083.9687</v>
+        <v>2072.3884</v>
       </c>
     </row>
   </sheetData>
